--- a/PlanilhaOBI.xlsx
+++ b/PlanilhaOBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Desktop\OBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21A15BB-7307-475C-8001-994C31190524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF36F9-EAFD-4D16-BA93-3CDC96B2580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{A7C183B0-6484-48BD-B5F9-C8014CF65135}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
   <si>
     <t>Exercício</t>
   </si>
@@ -366,9 +366,6 @@
     <t>N, K (N+2 linhas)</t>
   </si>
   <si>
-    <t>Saldo</t>
-  </si>
-  <si>
     <t>Tomadas</t>
   </si>
   <si>
@@ -400,6 +397,33 @@
   </si>
   <si>
     <t>Troco</t>
+  </si>
+  <si>
+    <t>Saldo do Vovô</t>
+  </si>
+  <si>
+    <t>Depósito, retirada, saldo, conta, menor saldo</t>
+  </si>
+  <si>
+    <t>N e S, X (N+1 linhas)</t>
+  </si>
+  <si>
+    <t>Menor saldo</t>
+  </si>
+  <si>
+    <t>Quatro inteiros (Linha única)</t>
+  </si>
+  <si>
+    <t>sum() - 3</t>
+  </si>
+  <si>
+    <t>Aumentar, disponibilizadas (Não relevantes)</t>
+  </si>
+  <si>
+    <t>Retângulo, perpendiculares, paralelas, lados, áreas</t>
+  </si>
+  <si>
+    <t>check(Li*Li = Li*Li)</t>
   </si>
 </sst>
 </file>
@@ -490,7 +514,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -503,7 +527,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -847,8 +870,8 @@
   </sheetPr>
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,7 +1496,7 @@
       <c r="D19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>101</v>
       </c>
       <c r="I19" t="s">
@@ -1494,7 +1517,7 @@
       <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F20" s="4"/>
@@ -1516,7 +1539,7 @@
       <c r="D21" t="s">
         <v>104</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>105</v>
       </c>
       <c r="I21" t="s">
@@ -1535,9 +1558,27 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -1550,9 +1591,27 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
-      </c>
-      <c r="K23" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -1565,9 +1624,27 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -1580,7 +1657,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -1595,9 +1672,8 @@
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" s="8"/>
+        <v>112</v>
+      </c>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -1641,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -1656,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -1671,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -1686,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K32" s="6"/>
     </row>
@@ -1701,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -1716,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -1731,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K35" s="6"/>
     </row>

--- a/PlanilhaOBI.xlsx
+++ b/PlanilhaOBI.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jun\Desktop\OBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF36F9-EAFD-4D16-BA93-3CDC96B2580A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A92409-694C-4447-BEDE-710E95347B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{A7C183B0-6484-48BD-B5F9-C8014CF65135}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7C183B0-6484-48BD-B5F9-C8014CF65135}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="outros" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="129">
   <si>
     <t>Exercício</t>
   </si>
@@ -54,36 +54,6 @@
     <t>Campeonato</t>
   </si>
   <si>
-    <t>Coluna3</t>
-  </si>
-  <si>
-    <t>Coluna4</t>
-  </si>
-  <si>
-    <t>Coluna5</t>
-  </si>
-  <si>
-    <t>Coluna6</t>
-  </si>
-  <si>
-    <t>Coluna7</t>
-  </si>
-  <si>
-    <t>Coluna8</t>
-  </si>
-  <si>
-    <t>Coluna9</t>
-  </si>
-  <si>
-    <t>Coluna10</t>
-  </si>
-  <si>
-    <t>Coluna11</t>
-  </si>
-  <si>
-    <t>Coluna12</t>
-  </si>
-  <si>
     <t>Fácil</t>
   </si>
   <si>
@@ -424,6 +394,36 @@
   </si>
   <si>
     <t>check(Li*Li = Li*Li)</t>
+  </si>
+  <si>
+    <t>V e T, T inteiros (Duas linhas)</t>
+  </si>
+  <si>
+    <t>V += A</t>
+  </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Lençol</t>
+  </si>
+  <si>
+    <t>Tiro ao Alvo</t>
+  </si>
+  <si>
+    <t>Catálogo de Músicas</t>
+  </si>
+  <si>
+    <t>Vende-se</t>
+  </si>
+  <si>
+    <t>Matemática Básica, Estruturas...</t>
   </si>
 </sst>
 </file>
@@ -545,27 +545,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A38334AD-4E6B-4003-8550-76BFED72782A}" name="Tabela2" displayName="Tabela2" ref="A1:L30">
-  <autoFilter ref="A1:L30" xr:uid="{A38334AD-4E6B-4003-8550-76BFED72782A}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{0454E566-D802-4FE5-A241-5AB07F15F91C}" name="Ano" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F117D0BC-53BD-4299-B1CD-5DCF376352C4}" name="Fase"/>
-    <tableColumn id="3" xr3:uid="{043C5071-E28C-4632-AD3C-E4866A560604}" name="Coluna3"/>
-    <tableColumn id="4" xr3:uid="{C27589A6-CCB7-40CB-949C-EF8B5C8E30D6}" name="Coluna4"/>
-    <tableColumn id="5" xr3:uid="{0E716163-5780-430D-A211-A7B92B170AB5}" name="Coluna5"/>
-    <tableColumn id="6" xr3:uid="{278FE1EE-6AB1-4CB9-BCE3-9260A4F1E3B6}" name="Coluna6"/>
-    <tableColumn id="7" xr3:uid="{29D3F6B7-413D-46D1-8206-D41DDA76D193}" name="Coluna7"/>
-    <tableColumn id="8" xr3:uid="{453D1E57-AFC6-4ABA-83C2-82A59ED6A313}" name="Coluna8"/>
-    <tableColumn id="9" xr3:uid="{15EF62E7-0F1A-43EE-B900-67D601F9BF8E}" name="Coluna9"/>
-    <tableColumn id="10" xr3:uid="{D586D0B7-571D-461F-B954-1AFAA9B31E23}" name="Coluna10"/>
-    <tableColumn id="11" xr3:uid="{98B2C1AD-FFE0-4CC7-B94D-C54A16B0677A}" name="Coluna11"/>
-    <tableColumn id="12" xr3:uid="{12F1ED96-BFA8-4B16-8CD5-DDBE4CEAC6F6}" name="Coluna12" totalsRowFunction="count"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,10 +847,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,25 +883,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -933,28 +912,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K2" s="5"/>
     </row>
@@ -966,28 +945,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K3" s="5"/>
     </row>
@@ -999,28 +978,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -1032,28 +1011,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5"/>
     </row>
@@ -1065,28 +1044,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5"/>
     </row>
@@ -1098,28 +1077,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K7" s="5"/>
     </row>
@@ -1134,25 +1113,25 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K8" s="5"/>
     </row>
@@ -1167,25 +1146,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K9" s="5"/>
     </row>
@@ -1200,25 +1179,25 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K10" s="5"/>
     </row>
@@ -1233,25 +1212,25 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K11" s="5"/>
     </row>
@@ -1266,25 +1245,25 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -1299,25 +1278,25 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -1332,25 +1311,25 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K14" s="5"/>
     </row>
@@ -1365,25 +1344,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -1398,25 +1377,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" t="s">
-        <v>48</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" t="s">
         <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s">
-        <v>94</v>
       </c>
       <c r="K16" s="5"/>
     </row>
@@ -1431,25 +1410,25 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>49</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K17" s="6"/>
     </row>
@@ -1464,22 +1443,22 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K18" s="7"/>
     </row>
@@ -1494,13 +1473,13 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K19" s="6"/>
     </row>
@@ -1515,14 +1494,14 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F20" s="4"/>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="K20" s="6"/>
     </row>
@@ -1537,13 +1516,13 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K21" s="6"/>
     </row>
@@ -1555,28 +1534,28 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K22" s="5"/>
     </row>
@@ -1588,28 +1567,28 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -1621,28 +1600,28 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -1654,12 +1633,27 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -1669,12 +1663,21 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -1684,10 +1687,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -1702,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K28" s="6"/>
     </row>
@@ -1717,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K29" s="6"/>
     </row>
@@ -1732,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -1747,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K31" s="6"/>
     </row>
@@ -1759,11 +1762,12 @@
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="K32" s="6"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1774,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K33" s="6"/>
     </row>
@@ -1789,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -1804,12 +1808,68 @@
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1819,60 +1879,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCB3DC1-22D5-46E3-B8D3-FCF104DC2ABB}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.28515625" customWidth="1"/>
+    <col min="1" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>